--- a/src/excelForm/form.xlsx
+++ b/src/excelForm/form.xlsx
@@ -2,21 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takayamahiroyuki/projests/SkillCheck/src/excelForm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takayamahiroyuki/projests/SkillCheck/test/takayama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D9DE8A6-93DB-D341-A500-23B61AF46C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820AF36-98BC-7D4C-B89A-D9FC17A9C531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8EYwpV6YErVqoPkHa20S2mG/+ZDhQ8xiU+Z0EW5BkhRX62STf2mlKXC8xL3sP4qcUqJte6TC1LV5R8XId+oaZA==" workbookSaltValue="zkIjeu3ExZ8aQGhk5xi90A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="2720" windowWidth="28300" windowHeight="17440" xr2:uid="{EF5E774D-FFF0-5740-BB67-9EBC9E712116}"/>
+    <workbookView xWindow="2020" yWindow="640" windowWidth="27640" windowHeight="19220" xr2:uid="{EF5E774D-FFF0-5740-BB67-9EBC9E712116}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AK$11</definedName>
+    <definedName name="inputFields" comment="この範囲は0~3を入力しないと保存できないようにする。">Sheet1!$I$2:$AK$11</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,17 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>生鮮スキルチェック　入力シート</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">セイセン </t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">ニュウリョクシート </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>従業員番号</t>
     <rPh sb="0" eb="5">
@@ -381,24 +375,6 @@
     </rPh>
     <rPh sb="6" eb="10">
       <t xml:space="preserve">シャインキョウイク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>専門
-教育
-管理【単店）</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">センモン </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">キョウイク </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">カンリ </t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">タンテン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -465,12 +441,404 @@
 適正人時</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>専門
+教育
+管理（単店）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">センモン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">キョウイク </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">タンテン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗A</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職A</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤクショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗B</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職B</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤクショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗C</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職C</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤクショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗D</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職D</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤクショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗E</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職E</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤクショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗F</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職F</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤクショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗G</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職G</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤクショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗H</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職H</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤクショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗I</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職I</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤクショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗K</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職K</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤクショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員A</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジュウギョウイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員B</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジュウギョウイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員C</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジュウギョウイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員D</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジュウギョウイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員E</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジュウギョウイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員F</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジュウギョウイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員G</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジュウギョウイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員H</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジュウギョウイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員I</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジュウギョウイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員K</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジュウギョウイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生鮮スキルチェック
+入力シート</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイセン </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ニュウリョクシート </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック
+（管轄名）</t>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">カンカツメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーン
+（部署名）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア
+（課・DIVCD）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗
+（センター・エリア名）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンポ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職位</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ショクイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -497,8 +865,8 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -506,15 +874,22 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +950,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -582,32 +963,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -626,36 +981,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -664,49 +989,6 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
         <color theme="0"/>
       </bottom>
       <diagonal/>
@@ -724,6 +1006,30 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0"/>
       </left>
       <right style="thin">
@@ -735,81 +1041,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="double">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="double">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="double">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1119,166 +1540,1293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3E5354-6D79-4546-ADC0-CECA042CCFF9}">
-  <dimension ref="A1:AF2"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:LN11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" style="10" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="10"/>
-    <col min="4" max="4" width="10.7109375" style="9"/>
-    <col min="5" max="7" width="10.7109375" style="5"/>
-    <col min="8" max="11" width="10.7109375" style="6"/>
-    <col min="12" max="13" width="10.7109375" style="5"/>
-    <col min="14" max="23" width="10.7109375" style="7"/>
-    <col min="24" max="24" width="13.28515625" style="7" customWidth="1"/>
-    <col min="25" max="25" width="14" style="7" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" style="8" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" style="8" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" style="8" customWidth="1"/>
-    <col min="29" max="29" width="13" style="8" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="8" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="8" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="14"/>
+    <col min="3" max="3" width="10.7109375" style="14" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="14"/>
+    <col min="6" max="6" width="18" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="14"/>
+    <col min="9" max="9" width="10.7109375" style="6"/>
+    <col min="10" max="12" width="10.7109375" style="7"/>
+    <col min="13" max="15" width="10.7109375" style="8"/>
+    <col min="16" max="16" width="13.28515625" style="8" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" style="7"/>
+    <col min="19" max="21" width="10.7109375" style="9"/>
+    <col min="22" max="22" width="14" style="9" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="9"/>
+    <col min="24" max="24" width="14.28515625" style="9" customWidth="1"/>
+    <col min="25" max="28" width="10.7109375" style="9"/>
+    <col min="29" max="29" width="13.28515625" style="9" customWidth="1"/>
+    <col min="30" max="30" width="14" style="9" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" style="10" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" style="10" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" style="10" customWidth="1"/>
+    <col min="34" max="34" width="13" style="10" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" style="10" customWidth="1"/>
+    <col min="36" max="36" width="13.140625" style="10" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" style="10" customWidth="1"/>
+    <col min="38" max="326" width="10.7109375" style="11"/>
+    <col min="327" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="80" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:37" s="21" customFormat="1" ht="80" customHeight="1" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="N1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="O1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="P1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="Q1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="T1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="U1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="V1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="W1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="X1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="Y1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="Z1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="AA1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="AB1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="AC1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="AE1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="AF1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AH1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AI1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AK1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:37" hidden="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="F2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="21" thickTop="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
+    <row r="3" spans="1:37" hidden="1">
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" hidden="1">
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="B7" s="13">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="B8" s="13">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="B9" s="13">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="B10" s="13">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="B11" s="13">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="fX7krDWeYNh/WrOT7b0T6wawrN3s5d+0jZYSOyiqXvFntpoRmQE7IlIIXWQAC0p+qAgfor0zLHsYPGXLt0SyTQ==" saltValue="vxJvi88N2Cqi9RMqmghBcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <autoFilter ref="B1:AK11" xr:uid="{3F3E5354-6D79-4546-ADC0-CECA042CCFF9}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AK11">
+      <sortCondition ref="B1:B11"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="I1:AK1048576">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(I1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:H1048576">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="custom" imeMode="disabled" showErrorMessage="1" errorTitle="入力エラー" error="半角文字の0 ~ 3の整数を入力してください。" sqref="I2:AK11" xr:uid="{4A366FF8-AD97-BA4A-8848-E12192A27DDA}">
+      <formula1>AND(I2&gt;=0,I2&lt;=3,I2&lt;&gt;"",MOD(I2,1)=0)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>